--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1rn-Il1r1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H2">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I2">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J2">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N2">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P2">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q2">
-        <v>0.171653673184</v>
+        <v>24.106255962464</v>
       </c>
       <c r="R2">
-        <v>1.544883058656</v>
+        <v>216.956303662176</v>
       </c>
       <c r="S2">
-        <v>1.444112930570694E-06</v>
+        <v>0.0001536750076081259</v>
       </c>
       <c r="T2">
-        <v>1.444112930570694E-06</v>
+        <v>0.0001536750076081259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H3">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I3">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J3">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P3">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q3">
-        <v>0.9207193450333333</v>
+        <v>142.9526014046</v>
       </c>
       <c r="R3">
-        <v>8.2864741053</v>
+        <v>1286.5734126414</v>
       </c>
       <c r="S3">
-        <v>7.745961312252025E-06</v>
+        <v>0.0009113087549829462</v>
       </c>
       <c r="T3">
-        <v>7.745961312252025E-06</v>
+        <v>0.0009113087549829463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H4">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I4">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J4">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N4">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O4">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P4">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q4">
-        <v>0.002808602342222222</v>
+        <v>0.7793520380013335</v>
       </c>
       <c r="R4">
-        <v>0.02527742108</v>
+        <v>7.014168342012001</v>
       </c>
       <c r="S4">
-        <v>2.362861734328623E-08</v>
+        <v>4.968292486222379E-06</v>
       </c>
       <c r="T4">
-        <v>2.362861734328623E-08</v>
+        <v>4.968292486222379E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H5">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I5">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J5">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N5">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P5">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q5">
-        <v>0.09006968175844446</v>
+        <v>21.20662249017867</v>
       </c>
       <c r="R5">
-        <v>0.8106271358260001</v>
+        <v>190.859602411608</v>
       </c>
       <c r="S5">
-        <v>7.577512887844279E-07</v>
+        <v>0.0001351901297984787</v>
       </c>
       <c r="T5">
-        <v>7.577512887844279E-07</v>
+        <v>0.0001351901297984787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H6">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I6">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J6">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N6">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P6">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q6">
-        <v>0.00560896888</v>
+        <v>1.191041536204</v>
       </c>
       <c r="R6">
-        <v>0.05048071992</v>
+        <v>10.719373825836</v>
       </c>
       <c r="S6">
-        <v>4.718794731583775E-08</v>
+        <v>7.592772491205018E-06</v>
       </c>
       <c r="T6">
-        <v>4.718794731583775E-08</v>
+        <v>7.592772491205018E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.009651333333333333</v>
+        <v>1.498484</v>
       </c>
       <c r="H7">
-        <v>0.028954</v>
+        <v>4.495452</v>
       </c>
       <c r="I7">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="J7">
-        <v>1.003696641352988E-05</v>
+        <v>0.001216692661445581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N7">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P7">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q7">
-        <v>0.002178109689555555</v>
+        <v>0.6208259171573334</v>
       </c>
       <c r="R7">
-        <v>0.019602987206</v>
+        <v>5.587433254416</v>
       </c>
       <c r="S7">
-        <v>1.832431726361499E-08</v>
+        <v>3.957704078602306E-06</v>
       </c>
       <c r="T7">
-        <v>1.832431726361499E-08</v>
+        <v>3.957704078602306E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H8">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I8">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J8">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N8">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O8">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P8">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q8">
-        <v>1542.145623055968</v>
+        <v>2266.23642914676</v>
       </c>
       <c r="R8">
-        <v>13879.31060750371</v>
+        <v>20396.12786232084</v>
       </c>
       <c r="S8">
-        <v>0.01297398647968872</v>
+        <v>0.01444703404100679</v>
       </c>
       <c r="T8">
-        <v>0.01297398647968872</v>
+        <v>0.01444703404100679</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H9">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I9">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J9">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>286.19445</v>
       </c>
       <c r="O9">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P9">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q9">
-        <v>8271.7909944409</v>
+        <v>13439.01738407025</v>
       </c>
       <c r="R9">
-        <v>74446.11894996811</v>
+        <v>120951.1564566323</v>
       </c>
       <c r="S9">
-        <v>0.06959012360455427</v>
+        <v>0.08567241225508146</v>
       </c>
       <c r="T9">
-        <v>0.06959012360455426</v>
+        <v>0.08567241225508146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H10">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I10">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J10">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N10">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O10">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P10">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q10">
-        <v>25.23263107990667</v>
+        <v>73.267121298245</v>
       </c>
       <c r="R10">
-        <v>227.09367971916</v>
+        <v>659.404091684205</v>
       </c>
       <c r="S10">
-        <v>0.0002122807402772765</v>
+        <v>0.0004670706824180929</v>
       </c>
       <c r="T10">
-        <v>0.0002122807402772764</v>
+        <v>0.0004670706824180928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H11">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I11">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J11">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N11">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O11">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P11">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q11">
-        <v>809.1907555333114</v>
+        <v>1993.64100759733</v>
       </c>
       <c r="R11">
-        <v>7282.716799799803</v>
+        <v>17942.76906837597</v>
       </c>
       <c r="S11">
-        <v>0.006807677410499173</v>
+        <v>0.01270926507573164</v>
       </c>
       <c r="T11">
-        <v>0.006807677410499172</v>
+        <v>0.01270926507573164</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H12">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I12">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J12">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N12">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O12">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P12">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q12">
-        <v>50.39127125976</v>
+        <v>111.970175798985</v>
       </c>
       <c r="R12">
-        <v>453.52144133784</v>
+        <v>1007.731582190865</v>
       </c>
       <c r="S12">
-        <v>0.0004239389991737027</v>
+        <v>0.0007137988431129812</v>
       </c>
       <c r="T12">
-        <v>0.0004239389991737025</v>
+        <v>0.0007137988431129812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>86.70808599999999</v>
+        <v>140.872935</v>
       </c>
       <c r="H13">
-        <v>260.124258</v>
+        <v>422.618805</v>
       </c>
       <c r="I13">
-        <v>0.09017263386372808</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="J13">
-        <v>0.09017263386372806</v>
+        <v>0.1143816458572799</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N13">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O13">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P13">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q13">
-        <v>19.56825194578466</v>
+        <v>58.36403263166</v>
       </c>
       <c r="R13">
-        <v>176.114267512062</v>
+        <v>525.27629368494</v>
       </c>
       <c r="S13">
-        <v>0.0001646266295349327</v>
+        <v>0.0003720649599289531</v>
       </c>
       <c r="T13">
-        <v>0.0001646266295349327</v>
+        <v>0.0003720649599289531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H14">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I14">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J14">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N14">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O14">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P14">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q14">
-        <v>14122.49306705171</v>
+        <v>16365.97630867132</v>
       </c>
       <c r="R14">
-        <v>127102.4376034654</v>
+        <v>147293.7867780419</v>
       </c>
       <c r="S14">
-        <v>0.1188117590012944</v>
+        <v>0.1043314871320399</v>
       </c>
       <c r="T14">
-        <v>0.1188117590012944</v>
+        <v>0.1043314871320399</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H15">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I15">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J15">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>286.19445</v>
       </c>
       <c r="O15">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P15">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q15">
-        <v>75750.50580476392</v>
+        <v>97051.93919344257</v>
       </c>
       <c r="R15">
-        <v>681754.5522428753</v>
+        <v>873467.4527409831</v>
       </c>
       <c r="S15">
-        <v>0.6372848474536841</v>
+        <v>0.6186965540048627</v>
       </c>
       <c r="T15">
-        <v>0.637284847453684</v>
+        <v>0.6186965540048629</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H16">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I16">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J16">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N16">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O16">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P16">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q16">
-        <v>231.0726381230489</v>
+        <v>529.1098298261331</v>
       </c>
       <c r="R16">
-        <v>2079.65374310744</v>
+        <v>4761.988468435198</v>
       </c>
       <c r="S16">
-        <v>0.001944001421145712</v>
+        <v>0.00337302305470725</v>
       </c>
       <c r="T16">
-        <v>0.001944001421145711</v>
+        <v>0.00337302305470725</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H17">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I17">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J17">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N17">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O17">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P17">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q17">
-        <v>7410.31888564183</v>
+        <v>14397.38637976884</v>
       </c>
       <c r="R17">
-        <v>66692.86997077646</v>
+        <v>129576.4774179195</v>
       </c>
       <c r="S17">
-        <v>0.06234260603870994</v>
+        <v>0.09178192021578255</v>
       </c>
       <c r="T17">
-        <v>0.06234260603870993</v>
+        <v>0.09178192021578256</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H18">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I18">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J18">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N18">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O18">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P18">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q18">
-        <v>461.4676904478399</v>
+        <v>808.6099141446992</v>
       </c>
       <c r="R18">
-        <v>4153.209214030559</v>
+        <v>7277.489227302293</v>
       </c>
       <c r="S18">
-        <v>0.003882302350162797</v>
+        <v>0.005154808565116189</v>
       </c>
       <c r="T18">
-        <v>0.003882302350162797</v>
+        <v>0.00515480856511619</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>794.0458573333332</v>
+        <v>1017.335652666667</v>
       </c>
       <c r="H19">
-        <v>2382.137572</v>
+        <v>3052.006958</v>
       </c>
       <c r="I19">
-        <v>0.8257731160658847</v>
+        <v>0.8260247175321745</v>
       </c>
       <c r="J19">
-        <v>0.8257731160658845</v>
+        <v>0.8260247175321747</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N19">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O19">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P19">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q19">
-        <v>179.2000044010342</v>
+        <v>421.4848737948737</v>
       </c>
       <c r="R19">
-        <v>1612.800039609308</v>
+        <v>3793.363864153864</v>
       </c>
       <c r="S19">
-        <v>0.001507599800887805</v>
+        <v>0.002686924559665905</v>
       </c>
       <c r="T19">
-        <v>0.001507599800887805</v>
+        <v>0.002686924559665905</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H20">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I20">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J20">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.785488</v>
+        <v>16.087096</v>
       </c>
       <c r="N20">
-        <v>53.356464</v>
+        <v>48.261288</v>
       </c>
       <c r="O20">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="P20">
-        <v>0.1438794224342548</v>
+        <v>0.1263055268415452</v>
       </c>
       <c r="Q20">
-        <v>1437.336471476976</v>
+        <v>1156.618756516069</v>
       </c>
       <c r="R20">
-        <v>12936.02824329279</v>
+        <v>10409.56880864462</v>
       </c>
       <c r="S20">
-        <v>0.01209223284034118</v>
+        <v>0.007373330660890406</v>
       </c>
       <c r="T20">
-        <v>0.01209223284034118</v>
+        <v>0.007373330660890407</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H21">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I21">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J21">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>286.19445</v>
       </c>
       <c r="O21">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888087</v>
       </c>
       <c r="P21">
-        <v>0.7717432731278673</v>
+        <v>0.7490048915888088</v>
       </c>
       <c r="Q21">
-        <v>7709.61360781505</v>
+        <v>6858.869346396233</v>
       </c>
       <c r="R21">
-        <v>69386.52247033545</v>
+        <v>61729.8241175661</v>
       </c>
       <c r="S21">
-        <v>0.06486055610831672</v>
+        <v>0.04372461657388146</v>
       </c>
       <c r="T21">
-        <v>0.0648605561083167</v>
+        <v>0.04372461657388146</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H22">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I22">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J22">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2910066666666667</v>
+        <v>0.5200936666666667</v>
       </c>
       <c r="N22">
-        <v>0.87302</v>
+        <v>1.560281</v>
       </c>
       <c r="O22">
-        <v>0.002354159251886579</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="P22">
-        <v>0.002354159251886578</v>
+        <v>0.004083440825819921</v>
       </c>
       <c r="Q22">
-        <v>23.51774072451334</v>
+        <v>37.39333003370422</v>
       </c>
       <c r="R22">
-        <v>211.65966652062</v>
+        <v>336.539970303338</v>
       </c>
       <c r="S22">
-        <v>0.0001978534618462471</v>
+        <v>0.0002383787962083553</v>
       </c>
       <c r="T22">
-        <v>0.000197853461846247</v>
+        <v>0.0002383787962083554</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H23">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I23">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J23">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.332356333333335</v>
+        <v>14.15205133333333</v>
       </c>
       <c r="N23">
-        <v>27.997069</v>
+        <v>42.456154</v>
       </c>
       <c r="O23">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="P23">
-        <v>0.07549604706886087</v>
+        <v>0.1111128011883101</v>
       </c>
       <c r="Q23">
-        <v>754.1955622875878</v>
+        <v>1017.494270893366</v>
       </c>
       <c r="R23">
-        <v>6787.76006058829</v>
+        <v>9157.44843804029</v>
       </c>
       <c r="S23">
-        <v>0.006345005868362978</v>
+        <v>0.00648642576699745</v>
       </c>
       <c r="T23">
-        <v>0.006345005868362977</v>
+        <v>0.00648642576699745</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H24">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I24">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J24">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.58116</v>
+        <v>0.794831</v>
       </c>
       <c r="N24">
-        <v>1.74348</v>
+        <v>2.384493</v>
       </c>
       <c r="O24">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="P24">
-        <v>0.004701415285422111</v>
+        <v>0.006240501592393819</v>
       </c>
       <c r="Q24">
-        <v>46.96651920732</v>
+        <v>57.14620232641266</v>
       </c>
       <c r="R24">
-        <v>422.69867286588</v>
+        <v>514.315820937714</v>
       </c>
       <c r="S24">
-        <v>0.0003951267481382956</v>
+        <v>0.000364301411673442</v>
       </c>
       <c r="T24">
-        <v>0.0003951267481382955</v>
+        <v>0.0003643014116734421</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>80.815127</v>
+        <v>71.89729933333332</v>
       </c>
       <c r="H25">
-        <v>242.445381</v>
+        <v>215.691898</v>
       </c>
       <c r="I25">
-        <v>0.08404421310397378</v>
+        <v>0.0583769439490998</v>
       </c>
       <c r="J25">
-        <v>0.08404421310397377</v>
+        <v>0.05837694394909981</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2256796666666666</v>
+        <v>0.4143026666666667</v>
       </c>
       <c r="N25">
-        <v>0.6770389999999999</v>
+        <v>1.242908</v>
       </c>
       <c r="O25">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="P25">
-        <v>0.001825682831708365</v>
+        <v>0.003252837963122146</v>
       </c>
       <c r="Q25">
-        <v>18.23833092298433</v>
+        <v>29.78724283993155</v>
       </c>
       <c r="R25">
-        <v>164.144978306859</v>
+        <v>268.0851855593839</v>
       </c>
       <c r="S25">
-        <v>0.0001534380769683641</v>
+        <v>0.0001898907394486855</v>
       </c>
       <c r="T25">
-        <v>0.0001534380769683641</v>
+        <v>0.0001898907394486855</v>
       </c>
     </row>
   </sheetData>
